--- a/biology/Botanique/Sisymbre_couché/Sisymbre_couché.xlsx
+++ b/biology/Botanique/Sisymbre_couché/Sisymbre_couché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sisymbre_couch%C3%A9</t>
+          <t>Sisymbre_couché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sisymbrium supinum
 Le sisymbre couché, ou raya couchée (Sisymbrium supinum L.), est une espèce de plante annuelle de la famille des Brassicacées (ou Crucifères), originaire d'Europe occidentale.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sisymbre_couch%C3%A9</t>
+          <t>Sisymbre_couché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sisymbre couché est une plante annuelle à tiges étalées d'une longueur de 60 cm environ.
 Les fleurs sont blanches et petites (3 à 5 mm) et ne s'épanouissent que de mai à août.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sisymbre_couch%C3%A9</t>
+          <t>Sisymbre_couché</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sisymbre couché se rencontre en Europe occidentale depuis la Suède et les pays baltes jusqu'au nord de la France, mais est devenu rare en dehors des rives de la mer Baltique. L'espèce est présumée disparue au Benelux et en Allemagne.
 </t>
